--- a/data/trans_bre/P10_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P10_3-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>65,84%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41,73%</t>
+          <t>90,26%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 16,14</t>
+          <t>-7,32; 22,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 15,78</t>
+          <t>-5,07; 24,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,1; 189,39</t>
+          <t>-57,02; 605,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 206,84</t>
+          <t>-48,94; 808,85</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>53,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>57,54%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,27</t>
+          <t>-1,91; 3,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,49</t>
+          <t>-1,92; 3,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-84,48; 488,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-74,01; 574,49</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 0,0</t>
+          <t>-13,62; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 0,0</t>
+          <t>-16,34; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,03; 109,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,6; 114,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,35%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 2,61</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 2,72</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-73,58; 161,76</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-76,65; 156,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P10_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P10_3-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,119 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,76</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,41</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>65,84%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>90,26%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.757403203681261</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.55089202734309</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.6584235887727864</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.623556014549475</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,32; 22,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,07; 24,31</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-57,02; 605,73</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-48,94; 808,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.318428285966941</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.325572464372643</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.5701684075846664</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.5683140821349157</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>22.00037882951434</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>22.33126107644271</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>6.057322330656336</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>6.752137932861991</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>53,71%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>57,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 3,34</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 3,62</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.6149710894174555</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.5143172493920884</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.5370752284775382</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.4813335093842633</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,91</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,58</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.906861279000086</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.800393192017131</v>
+      </c>
+      <c r="E8" s="6" t="inlineStr"/>
+      <c r="F8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,62; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-16,34; 0,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.34047354206733</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.025741326175351</v>
+      </c>
+      <c r="E9" s="6" t="inlineStr"/>
+      <c r="F9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +708,131 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.909071658016098</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.532881944940099</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.61984018538262</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-16.19773371619841</v>
+      </c>
+      <c r="E11" s="6" t="inlineStr"/>
+      <c r="F11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="inlineStr"/>
+      <c r="F12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,35%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,76; 2,61</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; 2,72</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-73,58; 161,76</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-76,65; 156,27</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.04141307991799362</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.2969926411146597</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.01353156967045952</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.0891097061425959</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.764124980973042</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.806129877237882</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.7357808093732997</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.7926001999903164</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.606283274955147</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.317494225023513</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.617571118876977</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.600758296464688</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
